--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvaro/Google Drive/PWScale/Iterative PWScale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{957BE6AC-EABB-4547-95DA-427C8F5186AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F3519D-323C-EC45-88E2-E4B8FF3B70C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3EE04F1E-1415-3B4D-9BE5-D43A373F17F0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="270">
   <si>
     <t>Question ID</t>
   </si>
@@ -347,16 +347,520 @@
   </si>
   <si>
     <t>How comfortable would you like to be with uncertainty in your personal life?</t>
+  </si>
+  <si>
+    <t>P_1</t>
+  </si>
+  <si>
+    <t>P_2</t>
+  </si>
+  <si>
+    <t>P_3</t>
+  </si>
+  <si>
+    <t>P_4</t>
+  </si>
+  <si>
+    <t>P_5</t>
+  </si>
+  <si>
+    <t>P_6</t>
+  </si>
+  <si>
+    <t>P_7</t>
+  </si>
+  <si>
+    <t>P_8</t>
+  </si>
+  <si>
+    <t>P_9</t>
+  </si>
+  <si>
+    <t>P_10</t>
+  </si>
+  <si>
+    <t>P_11</t>
+  </si>
+  <si>
+    <t>P_12</t>
+  </si>
+  <si>
+    <t>P_13</t>
+  </si>
+  <si>
+    <t>P_14</t>
+  </si>
+  <si>
+    <t>P_15</t>
+  </si>
+  <si>
+    <t>P_16</t>
+  </si>
+  <si>
+    <t>P_17</t>
+  </si>
+  <si>
+    <t>P_18</t>
+  </si>
+  <si>
+    <t>P_19</t>
+  </si>
+  <si>
+    <t>P_20</t>
+  </si>
+  <si>
+    <t>P_21</t>
+  </si>
+  <si>
+    <t>P_22</t>
+  </si>
+  <si>
+    <t>P_23</t>
+  </si>
+  <si>
+    <t>P_24</t>
+  </si>
+  <si>
+    <t>P_25</t>
+  </si>
+  <si>
+    <t>P_26</t>
+  </si>
+  <si>
+    <t>P_27</t>
+  </si>
+  <si>
+    <t>P_28</t>
+  </si>
+  <si>
+    <t>P_29</t>
+  </si>
+  <si>
+    <t>P_30</t>
+  </si>
+  <si>
+    <t>P_31</t>
+  </si>
+  <si>
+    <t>P_32</t>
+  </si>
+  <si>
+    <t>P_33</t>
+  </si>
+  <si>
+    <t>P_34</t>
+  </si>
+  <si>
+    <t>P_35</t>
+  </si>
+  <si>
+    <t>P_36</t>
+  </si>
+  <si>
+    <t>P_37</t>
+  </si>
+  <si>
+    <t>P_38</t>
+  </si>
+  <si>
+    <t>P_39</t>
+  </si>
+  <si>
+    <t>P_40</t>
+  </si>
+  <si>
+    <t>P_41</t>
+  </si>
+  <si>
+    <t>P_42</t>
+  </si>
+  <si>
+    <t>P_43</t>
+  </si>
+  <si>
+    <t>P_44</t>
+  </si>
+  <si>
+    <t>P_45</t>
+  </si>
+  <si>
+    <t>P_46</t>
+  </si>
+  <si>
+    <t>P_47</t>
+  </si>
+  <si>
+    <t>P_48</t>
+  </si>
+  <si>
+    <t>P_49</t>
+  </si>
+  <si>
+    <t>P_50</t>
+  </si>
+  <si>
+    <t>P_51</t>
+  </si>
+  <si>
+    <t>P_52</t>
+  </si>
+  <si>
+    <t>P_53</t>
+  </si>
+  <si>
+    <t>P_54</t>
+  </si>
+  <si>
+    <t>P_55</t>
+  </si>
+  <si>
+    <t>P_56</t>
+  </si>
+  <si>
+    <t>P_57</t>
+  </si>
+  <si>
+    <t>P_58</t>
+  </si>
+  <si>
+    <t>P_59</t>
+  </si>
+  <si>
+    <t>P_60</t>
+  </si>
+  <si>
+    <t>P_61</t>
+  </si>
+  <si>
+    <t>P_62</t>
+  </si>
+  <si>
+    <t>P_63</t>
+  </si>
+  <si>
+    <t>P_64</t>
+  </si>
+  <si>
+    <t>P_65</t>
+  </si>
+  <si>
+    <t>P_66</t>
+  </si>
+  <si>
+    <t>P_67</t>
+  </si>
+  <si>
+    <t>P_68</t>
+  </si>
+  <si>
+    <t>P_69</t>
+  </si>
+  <si>
+    <t>P_70</t>
+  </si>
+  <si>
+    <t>P_71</t>
+  </si>
+  <si>
+    <t>P_72</t>
+  </si>
+  <si>
+    <t>P_73</t>
+  </si>
+  <si>
+    <t>P_74</t>
+  </si>
+  <si>
+    <t>P_75</t>
+  </si>
+  <si>
+    <t>P_76</t>
+  </si>
+  <si>
+    <t>P_77</t>
+  </si>
+  <si>
+    <t>P_78</t>
+  </si>
+  <si>
+    <t>P_79</t>
+  </si>
+  <si>
+    <t>P_80</t>
+  </si>
+  <si>
+    <t>W_1</t>
+  </si>
+  <si>
+    <t>W_2</t>
+  </si>
+  <si>
+    <t>W_3</t>
+  </si>
+  <si>
+    <t>W_4</t>
+  </si>
+  <si>
+    <t>W_5</t>
+  </si>
+  <si>
+    <t>W_6</t>
+  </si>
+  <si>
+    <t>W_7</t>
+  </si>
+  <si>
+    <t>W_8</t>
+  </si>
+  <si>
+    <t>W_9</t>
+  </si>
+  <si>
+    <t>W_10</t>
+  </si>
+  <si>
+    <t>W_11</t>
+  </si>
+  <si>
+    <t>W_12</t>
+  </si>
+  <si>
+    <t>W_13</t>
+  </si>
+  <si>
+    <t>W_14</t>
+  </si>
+  <si>
+    <t>W_15</t>
+  </si>
+  <si>
+    <t>W_16</t>
+  </si>
+  <si>
+    <t>W_17</t>
+  </si>
+  <si>
+    <t>W_18</t>
+  </si>
+  <si>
+    <t>W_19</t>
+  </si>
+  <si>
+    <t>W_20</t>
+  </si>
+  <si>
+    <t>W_21</t>
+  </si>
+  <si>
+    <t>W_22</t>
+  </si>
+  <si>
+    <t>W_23</t>
+  </si>
+  <si>
+    <t>W_24</t>
+  </si>
+  <si>
+    <t>W_25</t>
+  </si>
+  <si>
+    <t>W_26</t>
+  </si>
+  <si>
+    <t>W_27</t>
+  </si>
+  <si>
+    <t>W_28</t>
+  </si>
+  <si>
+    <t>W_29</t>
+  </si>
+  <si>
+    <t>W_30</t>
+  </si>
+  <si>
+    <t>W_31</t>
+  </si>
+  <si>
+    <t>W_32</t>
+  </si>
+  <si>
+    <t>W_33</t>
+  </si>
+  <si>
+    <t>W_34</t>
+  </si>
+  <si>
+    <t>W_35</t>
+  </si>
+  <si>
+    <t>W_36</t>
+  </si>
+  <si>
+    <t>W_37</t>
+  </si>
+  <si>
+    <t>W_38</t>
+  </si>
+  <si>
+    <t>W_39</t>
+  </si>
+  <si>
+    <t>W_40</t>
+  </si>
+  <si>
+    <t>W_41</t>
+  </si>
+  <si>
+    <t>W_42</t>
+  </si>
+  <si>
+    <t>W_43</t>
+  </si>
+  <si>
+    <t>W_44</t>
+  </si>
+  <si>
+    <t>W_45</t>
+  </si>
+  <si>
+    <t>W_46</t>
+  </si>
+  <si>
+    <t>W_47</t>
+  </si>
+  <si>
+    <t>W_48</t>
+  </si>
+  <si>
+    <t>W_49</t>
+  </si>
+  <si>
+    <t>W_50</t>
+  </si>
+  <si>
+    <t>W_51</t>
+  </si>
+  <si>
+    <t>W_52</t>
+  </si>
+  <si>
+    <t>W_53</t>
+  </si>
+  <si>
+    <t>W_54</t>
+  </si>
+  <si>
+    <t>W_55</t>
+  </si>
+  <si>
+    <t>W_56</t>
+  </si>
+  <si>
+    <t>W_57</t>
+  </si>
+  <si>
+    <t>W_58</t>
+  </si>
+  <si>
+    <t>W_59</t>
+  </si>
+  <si>
+    <t>W_60</t>
+  </si>
+  <si>
+    <t>W_61</t>
+  </si>
+  <si>
+    <t>W_62</t>
+  </si>
+  <si>
+    <t>W_63</t>
+  </si>
+  <si>
+    <t>W_64</t>
+  </si>
+  <si>
+    <t>W_65</t>
+  </si>
+  <si>
+    <t>W_66</t>
+  </si>
+  <si>
+    <t>W_67</t>
+  </si>
+  <si>
+    <t>W_68</t>
+  </si>
+  <si>
+    <t>W_69</t>
+  </si>
+  <si>
+    <t>W_70</t>
+  </si>
+  <si>
+    <t>W_71</t>
+  </si>
+  <si>
+    <t>W_72</t>
+  </si>
+  <si>
+    <t>W_73</t>
+  </si>
+  <si>
+    <t>W_74</t>
+  </si>
+  <si>
+    <t>W_75</t>
+  </si>
+  <si>
+    <t>W_76</t>
+  </si>
+  <si>
+    <t>W_77</t>
+  </si>
+  <si>
+    <t>W_78</t>
+  </si>
+  <si>
+    <t>W_79</t>
+  </si>
+  <si>
+    <t>W_80</t>
+  </si>
+  <si>
+    <t>SA_P_1</t>
+  </si>
+  <si>
+    <t>SA_W_2</t>
+  </si>
+  <si>
+    <t>SA_P_3</t>
+  </si>
+  <si>
+    <t>SA_W_4</t>
+  </si>
+  <si>
+    <t>SA_P_5</t>
+  </si>
+  <si>
+    <t>SA_W_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -701,7 +1205,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,8 +1241,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>264</v>
       </c>
       <c r="B2" t="s">
         <v>98</v>
@@ -760,8 +1264,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>99</v>
@@ -783,8 +1287,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>266</v>
       </c>
       <c r="B4" t="s">
         <v>101</v>
@@ -806,8 +1310,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>267</v>
       </c>
       <c r="B5" t="s">
         <v>102</v>
@@ -829,8 +1333,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>268</v>
       </c>
       <c r="B6" t="s">
         <v>103</v>
@@ -852,8 +1356,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>269</v>
       </c>
       <c r="B7" t="s">
         <v>103</v>
@@ -875,6 +1379,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -884,7 +1389,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,8 +1420,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -935,8 +1440,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -955,8 +1460,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -975,8 +1480,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>107</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -995,8 +1500,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1015,8 +1520,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1035,8 +1540,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1055,8 +1560,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1075,8 +1580,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1095,8 +1600,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>113</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1115,8 +1620,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1135,8 +1640,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1155,8 +1660,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1175,8 +1680,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1195,8 +1700,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>118</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1215,8 +1720,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1235,8 +1740,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -1255,8 +1760,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1275,8 +1780,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1295,8 +1800,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>123</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1315,8 +1820,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1335,8 +1840,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>125</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1355,8 +1860,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>126</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1375,8 +1880,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>127</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1395,8 +1900,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>128</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1415,8 +1920,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>129</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -1435,8 +1940,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>130</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -1455,8 +1960,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>131</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -1475,8 +1980,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>132</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -1495,8 +2000,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>133</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -1515,8 +2020,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>134</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1535,8 +2040,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" t="s">
+        <v>135</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -1555,8 +2060,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" t="s">
+        <v>136</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -1575,8 +2080,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>137</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1595,8 +2100,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>138</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -1615,8 +2120,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" t="s">
+        <v>139</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -1635,8 +2140,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" t="s">
+        <v>140</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -1655,8 +2160,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" t="s">
+        <v>141</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -1675,8 +2180,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" t="s">
+        <v>142</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1695,8 +2200,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" t="s">
+        <v>143</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -1715,8 +2220,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" t="s">
+        <v>144</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -1735,8 +2240,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" t="s">
+        <v>145</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
@@ -1755,8 +2260,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" t="s">
+        <v>146</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -1775,8 +2280,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" t="s">
+        <v>147</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -1795,8 +2300,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" t="s">
+        <v>148</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -1815,8 +2320,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" t="s">
+        <v>149</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -1835,8 +2340,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" t="s">
+        <v>150</v>
       </c>
       <c r="B48" t="s">
         <v>38</v>
@@ -1855,8 +2360,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" t="s">
+        <v>151</v>
       </c>
       <c r="B49" t="s">
         <v>40</v>
@@ -1875,8 +2380,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" t="s">
+        <v>152</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
@@ -1895,8 +2400,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" t="s">
+        <v>153</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -1915,8 +2420,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" t="s">
+        <v>154</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
@@ -1935,8 +2440,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" t="s">
+        <v>155</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -1955,8 +2460,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" t="s">
+        <v>156</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
@@ -1975,8 +2480,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" t="s">
+        <v>157</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -1995,8 +2500,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" t="s">
+        <v>158</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -2015,8 +2520,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" t="s">
+        <v>159</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
@@ -2035,8 +2540,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" t="s">
+        <v>160</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -2055,8 +2560,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" t="s">
+        <v>161</v>
       </c>
       <c r="B59" t="s">
         <v>44</v>
@@ -2075,8 +2580,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" t="s">
+        <v>162</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2095,8 +2600,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" t="s">
+        <v>163</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -2115,8 +2620,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" t="s">
+        <v>164</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
@@ -2135,8 +2640,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" t="s">
+        <v>165</v>
       </c>
       <c r="B63" t="s">
         <v>33</v>
@@ -2155,8 +2660,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" t="s">
+        <v>166</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
@@ -2175,8 +2680,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" t="s">
+        <v>167</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2195,8 +2700,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" t="s">
+        <v>168</v>
       </c>
       <c r="B66" t="s">
         <v>30</v>
@@ -2215,8 +2720,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" t="s">
+        <v>169</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
@@ -2235,8 +2740,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" t="s">
+        <v>170</v>
       </c>
       <c r="B68" t="s">
         <v>43</v>
@@ -2255,8 +2760,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" t="s">
+        <v>171</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -2275,8 +2780,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" t="s">
+        <v>172</v>
       </c>
       <c r="B70" t="s">
         <v>47</v>
@@ -2295,8 +2800,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" t="s">
+        <v>173</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -2315,8 +2820,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
+      <c r="A72" t="s">
+        <v>174</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
@@ -2335,8 +2840,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
+      <c r="A73" t="s">
+        <v>175</v>
       </c>
       <c r="B73" t="s">
         <v>40</v>
@@ -2355,8 +2860,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
+      <c r="A74" t="s">
+        <v>176</v>
       </c>
       <c r="B74" t="s">
         <v>41</v>
@@ -2375,8 +2880,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
+      <c r="A75" t="s">
+        <v>177</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -2395,8 +2900,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
+      <c r="A76" t="s">
+        <v>178</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -2415,8 +2920,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
+      <c r="A77" t="s">
+        <v>179</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -2435,8 +2940,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
+      <c r="A78" t="s">
+        <v>180</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -2455,8 +2960,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
+      <c r="A79" t="s">
+        <v>181</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -2475,8 +2980,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
+      <c r="A80" t="s">
+        <v>182</v>
       </c>
       <c r="B80" t="s">
         <v>49</v>
@@ -2495,8 +3000,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
+      <c r="A81" t="s">
+        <v>183</v>
       </c>
       <c r="B81" t="s">
         <v>50</v>
@@ -2515,6 +3020,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2524,7 +3030,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2553,8 +3059,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -2573,8 +3079,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -2593,8 +3099,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -2613,8 +3119,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -2633,8 +3139,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -2653,8 +3159,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -2673,8 +3179,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -2693,8 +3199,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -2713,8 +3219,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -2733,8 +3239,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -2753,8 +3259,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
@@ -2773,8 +3279,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -2793,8 +3299,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -2813,8 +3319,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>197</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -2833,8 +3339,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>198</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -2853,8 +3359,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>199</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -2873,8 +3379,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -2893,8 +3399,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>201</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -2913,8 +3419,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>202</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -2933,8 +3439,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>203</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -2953,8 +3459,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>204</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -2973,8 +3479,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>205</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -2993,8 +3499,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>206</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -3013,8 +3519,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>207</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
@@ -3033,8 +3539,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>208</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -3053,8 +3559,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>209</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -3073,8 +3579,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>210</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -3093,8 +3599,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>211</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -3113,8 +3619,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>212</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
@@ -3133,8 +3639,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>213</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
@@ -3153,8 +3659,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>214</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -3173,8 +3679,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" t="s">
+        <v>215</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
@@ -3193,8 +3699,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" t="s">
+        <v>216</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
@@ -3213,8 +3719,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>217</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
@@ -3233,8 +3739,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>218</v>
       </c>
       <c r="B36" t="s">
         <v>63</v>
@@ -3253,8 +3759,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" t="s">
+        <v>219</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
@@ -3273,8 +3779,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" t="s">
+        <v>220</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -3293,8 +3799,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" t="s">
+        <v>221</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
@@ -3313,8 +3819,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" t="s">
+        <v>222</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
@@ -3333,8 +3839,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" t="s">
+        <v>223</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
@@ -3353,8 +3859,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" t="s">
+        <v>224</v>
       </c>
       <c r="B42" t="s">
         <v>64</v>
@@ -3373,8 +3879,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" t="s">
+        <v>225</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -3393,8 +3899,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" t="s">
+        <v>226</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
@@ -3413,8 +3919,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" t="s">
+        <v>227</v>
       </c>
       <c r="B45" t="s">
         <v>58</v>
@@ -3433,8 +3939,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
+      <c r="A46" t="s">
+        <v>228</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
@@ -3453,8 +3959,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
+      <c r="A47" t="s">
+        <v>229</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -3473,8 +3979,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" t="s">
+        <v>230</v>
       </c>
       <c r="B48" t="s">
         <v>87</v>
@@ -3493,8 +3999,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
+      <c r="A49" t="s">
+        <v>231</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
@@ -3513,8 +4019,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
+      <c r="A50" t="s">
+        <v>232</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
@@ -3533,8 +4039,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
+      <c r="A51" t="s">
+        <v>233</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -3553,8 +4059,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
+      <c r="A52" t="s">
+        <v>234</v>
       </c>
       <c r="B52" t="s">
         <v>88</v>
@@ -3573,8 +4079,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
+      <c r="A53" t="s">
+        <v>235</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -3593,8 +4099,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
+      <c r="A54" t="s">
+        <v>236</v>
       </c>
       <c r="B54" t="s">
         <v>89</v>
@@ -3613,8 +4119,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" t="s">
+        <v>237</v>
       </c>
       <c r="B55" t="s">
         <v>90</v>
@@ -3633,8 +4139,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
+      <c r="A56" t="s">
+        <v>238</v>
       </c>
       <c r="B56" t="s">
         <v>91</v>
@@ -3653,8 +4159,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
+      <c r="A57" t="s">
+        <v>239</v>
       </c>
       <c r="B57" t="s">
         <v>54</v>
@@ -3673,8 +4179,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
+      <c r="A58" t="s">
+        <v>240</v>
       </c>
       <c r="B58" t="s">
         <v>92</v>
@@ -3693,8 +4199,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
+      <c r="A59" t="s">
+        <v>241</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -3713,8 +4219,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" t="s">
+        <v>242</v>
       </c>
       <c r="B60" t="s">
         <v>93</v>
@@ -3733,8 +4239,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
+      <c r="A61" t="s">
+        <v>243</v>
       </c>
       <c r="B61" t="s">
         <v>57</v>
@@ -3753,8 +4259,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
+      <c r="A62" t="s">
+        <v>244</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
@@ -3773,8 +4279,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" t="s">
+        <v>245</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
@@ -3793,8 +4299,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" t="s">
+        <v>246</v>
       </c>
       <c r="B64" t="s">
         <v>94</v>
@@ -3813,8 +4319,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
+      <c r="A65" t="s">
+        <v>247</v>
       </c>
       <c r="B65" t="s">
         <v>80</v>
@@ -3833,8 +4339,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
+      <c r="A66" t="s">
+        <v>248</v>
       </c>
       <c r="B66" t="s">
         <v>95</v>
@@ -3853,8 +4359,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
+      <c r="A67" t="s">
+        <v>249</v>
       </c>
       <c r="B67" t="s">
         <v>86</v>
@@ -3873,8 +4379,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
+      <c r="A68" t="s">
+        <v>250</v>
       </c>
       <c r="B68" t="s">
         <v>96</v>
@@ -3893,8 +4399,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
+      <c r="A69" t="s">
+        <v>251</v>
       </c>
       <c r="B69" t="s">
         <v>52</v>
@@ -3913,8 +4419,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
+      <c r="A70" t="s">
+        <v>252</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
@@ -3933,8 +4439,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" t="s">
+        <v>253</v>
       </c>
       <c r="B71" t="s">
         <v>97</v>
@@ -3953,8 +4459,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
+      <c r="A72" t="s">
+        <v>254</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
@@ -3973,8 +4479,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
+      <c r="A73" t="s">
+        <v>255</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
@@ -3993,8 +4499,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
+      <c r="A74" t="s">
+        <v>256</v>
       </c>
       <c r="B74" t="s">
         <v>61</v>
@@ -4013,8 +4519,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
+      <c r="A75" t="s">
+        <v>257</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -4033,8 +4539,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
+      <c r="A76" t="s">
+        <v>258</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
@@ -4053,8 +4559,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
+      <c r="A77" t="s">
+        <v>259</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
@@ -4073,8 +4579,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
+      <c r="A78" t="s">
+        <v>260</v>
       </c>
       <c r="B78" t="s">
         <v>91</v>
@@ -4093,8 +4599,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
+      <c r="A79" t="s">
+        <v>261</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
@@ -4113,8 +4619,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
+      <c r="A80" t="s">
+        <v>262</v>
       </c>
       <c r="B80" t="s">
         <v>76</v>
@@ -4133,8 +4639,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
+      <c r="A81" t="s">
+        <v>263</v>
       </c>
       <c r="B81" t="s">
         <v>56</v>
@@ -4153,6 +4659,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvaro/Google Drive/PWScale/Iterative PWScale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F3519D-323C-EC45-88E2-E4B8FF3B70C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE437E48-E785-7A40-99A0-976742300B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3EE04F1E-1415-3B4D-9BE5-D43A373F17F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{3EE04F1E-1415-3B4D-9BE5-D43A373F17F0}"/>
   </bookViews>
   <sheets>
     <sheet name="SA" sheetId="3" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>Suited for</t>
   </si>
   <si>
-    <t>Very Uncomfortable</t>
-  </si>
-  <si>
-    <t>Very Comfortable</t>
-  </si>
-  <si>
     <t>The sooner we all acquire similar values and ideals the better.</t>
   </si>
   <si>
@@ -845,6 +839,12 @@
   </si>
   <si>
     <t>SA_W_6</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
+  </si>
+  <si>
+    <t>Strongly Agree</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7589F-2305-7A4A-BAC9-2A9F0A317C52}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,21 +1234,21 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1288,13 +1288,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1357,13 +1357,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A81"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,18 +1413,18 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1901,10 +1901,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1921,10 +1921,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2261,10 +2261,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2501,10 +2501,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2621,10 +2621,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2741,10 +2741,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2881,10 +2881,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3029,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16618C6F-F7FF-A643-A8B3-B456366D5B94}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3052,18 +3052,18 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3120,10 +3120,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3140,10 +3140,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3240,10 +3240,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3260,10 +3260,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3340,10 +3340,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3380,10 +3380,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3440,10 +3440,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3460,10 +3460,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3520,10 +3520,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3560,10 +3560,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3580,10 +3580,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3680,10 +3680,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3760,10 +3760,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3780,10 +3780,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3860,10 +3860,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3880,10 +3880,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3900,10 +3900,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3920,10 +3920,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3940,10 +3940,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3980,10 +3980,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4160,10 +4160,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4200,10 +4200,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4260,10 +4260,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4400,10 +4400,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4420,10 +4420,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4460,10 +4460,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4480,10 +4480,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4560,10 +4560,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4580,10 +4580,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4640,10 +4640,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C81">
         <v>1</v>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvaro/Google Drive/PWScale/Iterative PWScale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19817A22-5E70-9C4A-8C86-09681B984621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE437E48-E785-7A40-99A0-976742300B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="25600" windowHeight="11820" activeTab="1" xr2:uid="{07B51A6D-17B2-E340-8423-7EB7E4756F07}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{3EE04F1E-1415-3B4D-9BE5-D43A373F17F0}"/>
   </bookViews>
   <sheets>
-    <sheet name="SA" sheetId="1" r:id="rId1"/>
-    <sheet name="P" sheetId="2" r:id="rId2"/>
-    <sheet name="W" sheetId="3" r:id="rId3"/>
+    <sheet name="SA" sheetId="3" r:id="rId1"/>
+    <sheet name="P" sheetId="1" r:id="rId2"/>
+    <sheet name="W" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="270">
   <si>
     <t>Question ID</t>
   </si>
@@ -44,27 +43,792 @@
     <t>Question</t>
   </si>
   <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>P/W</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>Suited for</t>
   </si>
   <si>
+    <t>The sooner we all acquire similar values and ideals the better.</t>
+  </si>
+  <si>
+    <t>I am just a little uncomfortable with people unless I feel that I can understand their behaviour.</t>
+  </si>
+  <si>
+    <t>I need to be able to “figure someone out” to be comfortable with him or her.</t>
+  </si>
+  <si>
+    <t>I try to avoid situations where the path forward is ambiguous.</t>
+  </si>
+  <si>
+    <t>I would pay anything to know why others behave the way that they do.</t>
+  </si>
+  <si>
+    <t>Before any test or challenge, I feel much less anxious if I know what its format will be.</t>
+  </si>
+  <si>
+    <t>I try to avoid situations which are ambiguous.</t>
+  </si>
+  <si>
+    <t>I try to avoid situations where the outcome is doubtful.</t>
+  </si>
+  <si>
+    <t>At a party, I am super sociable with everyone.</t>
+  </si>
+  <si>
+    <t>I prefer to stay in on a Friday night rather than going out</t>
+  </si>
+  <si>
+    <t>I feel anxious in big gatherings</t>
+  </si>
+  <si>
+    <t>Social Media makes me anxious about my personality</t>
+  </si>
+  <si>
+    <t>I get nervous when I have to meet new people</t>
+  </si>
+  <si>
+    <t>I usually get nervous when facing new situations</t>
+  </si>
+  <si>
+    <t>When I go on holidays with friends I prefer to have nothing planned and explore</t>
+  </si>
+  <si>
+    <t>I feel at ease presenting in front of my class</t>
+  </si>
+  <si>
+    <t>I like experiencing a particular and new moment in my life</t>
+  </si>
+  <si>
+    <t>It doesnt bother me being with a partner who have same pleans every day (like maybe watch a movie)</t>
+  </si>
+  <si>
+    <t>I need to know the format of a test or assessment ahead of time in order to be successful.</t>
+  </si>
+  <si>
+    <t>I avoid uncertain situations.</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I thrive under uncertain conditions or in ambiguous circumstances.</t>
+  </si>
+  <si>
+    <t> I try to avoid situations where the outcome is doubtful.</t>
+  </si>
+  <si>
+    <t>I prefer a situation in which I don’t know the people</t>
+  </si>
+  <si>
+    <t>I believe that being uncertain means that I lack confidence in myself</t>
+  </si>
+  <si>
+    <t>I don't think new situations are more threatening than familiar situations.</t>
+  </si>
+  <si>
+    <t>I would like to live in a foreign country for a significant amount of time.</t>
+  </si>
+  <si>
+    <t>If given then chance, I would move to a foreign country for one year.</t>
+  </si>
+  <si>
+    <t>It bothers me when I am unable to follow another person's intention.</t>
+  </si>
+  <si>
+    <t>I prefer meeting new people better than with people I have always known</t>
+  </si>
+  <si>
+    <t>I enjoy meeting up with strangers</t>
+  </si>
+  <si>
+    <t>When I am out with friends, I have no issue with openly communicating with newcomers whom i have never met</t>
+  </si>
+  <si>
+    <t>I prefer to be in a group of people where I don’t know anyone</t>
+  </si>
+  <si>
+    <t>It doeant bother me being with a partner who have same pleans every day (like maybe watch a movie)</t>
+  </si>
+  <si>
+    <t>I prefer spending most of the time at home</t>
+  </si>
+  <si>
+    <t>I prefer going to one destination on vacation instead of going on a trip with a caravan.</t>
+  </si>
+  <si>
+    <t>I always plan things with lot of time ahead</t>
+  </si>
+  <si>
+    <t>I prefer situations that push/lead me out of my comfort zone</t>
+  </si>
+  <si>
+    <t>People who fit their lives to a schedule probably miss most of the joy of living.</t>
+  </si>
+  <si>
+    <t>I am open to new experiences</t>
+  </si>
+  <si>
+    <t>I prefer a situation in which there is some ambiguity.</t>
+  </si>
+  <si>
+    <t>I fell anxious in big gatherings</t>
+  </si>
+  <si>
+    <t>I like knowing every detail of every situation</t>
+  </si>
+  <si>
+    <t>I think that I could thrive if I lived in a foreign country.</t>
+  </si>
+  <si>
+    <t>I enjoy working with people whose values are very different from mine</t>
+  </si>
+  <si>
+    <t>I tend to take risks at work and think more like an entrepreneur at all times</t>
+  </si>
+  <si>
+    <t>I prefer to engage in challenges that are entirely unfamiliar to me</t>
+  </si>
+  <si>
+    <t>I like to fool around with new ideas, even if they turn out later to be a total waste of time.</t>
+  </si>
+  <si>
+    <t>I like to try tasks outside my field of expertise</t>
+  </si>
+  <si>
+    <t>I always take risks at work and say yes for a new challenge or project even if it is out of my expertise.</t>
+  </si>
+  <si>
+    <t>I prefer rules and conventional ways of how things are always done, I do not like surprises</t>
+  </si>
+  <si>
+    <t>I am usually comfortable in situations of uncertainty in my professional life.</t>
+  </si>
+  <si>
+    <t>I like jobs with clear-cut KPIs, targets and goals</t>
+  </si>
+  <si>
+    <t>I prefer a predictable job with not much freedom to get creative as I am always scared to mess up</t>
+  </si>
+  <si>
+    <t>A good job is one where what &amp; how it has to be done, are always clear.</t>
+  </si>
+  <si>
+    <t>I like projects where I know most of the people more than ones where all or most of the people are complete strangers</t>
+  </si>
+  <si>
+    <t>I refuse to delegate tasks to others, this is because i cannot be “sure” that it will be done correctly unless I do it.</t>
+  </si>
+  <si>
+    <t>When at work, I would like like to know what to do ahead of time before it happens</t>
+  </si>
+  <si>
+    <t>It makes me feel relaxed and secure when I know all details about a certain situation</t>
+  </si>
+  <si>
+    <t>I say more “No” than “Yes” in my work options and choices.</t>
+  </si>
+  <si>
+    <t>In the long run, it is more probable to achieve more by tackling small, simple problems, rather than large and complicated ones.</t>
+  </si>
+  <si>
+    <t>I like jobs that leave room for innovation and new ideas.</t>
+  </si>
+  <si>
+    <t>I am mre comfortable with creating ideas and concepts rather than simply completing an assigned task</t>
+  </si>
+  <si>
+    <t>I don’t mind working with people of different values</t>
+  </si>
+  <si>
+    <t>I don’t mind working with new people I haven’t met before</t>
+  </si>
+  <si>
+    <t>I like to fool around with new ideas, even if they turn out later to be a total waste of time</t>
+  </si>
+  <si>
+    <t>The thrill and joy of new assignments is more important than earning more money</t>
+  </si>
+  <si>
+    <t>If given a choice, I prefer to work abroad than in my home country</t>
+  </si>
+  <si>
+    <t>I adapt easily to new surroundings and environment</t>
+  </si>
+  <si>
+    <t>A mid-life career change seems like an exciting idea</t>
+  </si>
+  <si>
+    <t>I like jobs with clear-cut KPIs, targets and goals.</t>
+  </si>
+  <si>
+    <t>I like projects where I know most of the people more than ones where all or most of the people are complete strangers.</t>
+  </si>
+  <si>
+    <t>I believe that more information means more certainty</t>
+  </si>
+  <si>
+    <t>I have fear from a change like a new job or new school</t>
+  </si>
+  <si>
+    <t>Managers who hand out vague assignments give people a chance to show initiative and originality.</t>
+  </si>
+  <si>
+    <t>I am comfortable challenging a colleague/superior when i disagree with what they are saying.</t>
+  </si>
+  <si>
+    <t>I feel more relaxed when things are under my circle of control</t>
+  </si>
+  <si>
+    <t>I like when things are under my circle of control</t>
+  </si>
+  <si>
+    <t>I prefer to engage in challenges that are entirely unfamiliar to me.</t>
+  </si>
+  <si>
+    <t>It bothers me to work with people of different values</t>
+  </si>
+  <si>
+    <t>I am more comfortable with creating ideas and concepts rather than simply completing an assigned task</t>
+  </si>
+  <si>
+    <t>Uncertainty is a great way to challenge oneself</t>
+  </si>
+  <si>
+    <t>I embrace uncertainty and see it always as an opportunity at work.</t>
+  </si>
+  <si>
+    <t>I prefer jobs with definite duty rather than when I have to make different tasks.</t>
+  </si>
+  <si>
+    <t>When I am given a project or decision to take I come up with creative ideas outside of the box</t>
+  </si>
+  <si>
+    <t>Before performing a task i like to know the detailed action plan</t>
+  </si>
+  <si>
+    <t>I will not hesitate to jump from one role to the other to pursuit what makes me happy</t>
+  </si>
+  <si>
+    <t>I would rather divide one task and specify time limit for each section</t>
+  </si>
+  <si>
+    <t>Unemployment is some-thing I fear</t>
+  </si>
+  <si>
+    <t>I feel more comfortable with people of similar values and characterestics</t>
+  </si>
+  <si>
+    <t>Unforeseen circumstances bring so much anxiety to me</t>
+  </si>
+  <si>
+    <t>How comfortable are you today with uncertainty in your personal life?</t>
+  </si>
+  <si>
+    <t>How comfortable are you today with uncertainty in your professional life?</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>What was your P Score after graduating from High School?</t>
+  </si>
+  <si>
+    <t>What was your W Score after graduating from High School?</t>
+  </si>
+  <si>
+    <t>How comfortable would you like to be with uncertainty in your personal life?</t>
+  </si>
+  <si>
+    <t>P_1</t>
+  </si>
+  <si>
+    <t>P_2</t>
+  </si>
+  <si>
+    <t>P_3</t>
+  </si>
+  <si>
+    <t>P_4</t>
+  </si>
+  <si>
+    <t>P_5</t>
+  </si>
+  <si>
+    <t>P_6</t>
+  </si>
+  <si>
+    <t>P_7</t>
+  </si>
+  <si>
+    <t>P_8</t>
+  </si>
+  <si>
+    <t>P_9</t>
+  </si>
+  <si>
+    <t>P_10</t>
+  </si>
+  <si>
+    <t>P_11</t>
+  </si>
+  <si>
+    <t>P_12</t>
+  </si>
+  <si>
+    <t>P_13</t>
+  </si>
+  <si>
+    <t>P_14</t>
+  </si>
+  <si>
+    <t>P_15</t>
+  </si>
+  <si>
+    <t>P_16</t>
+  </si>
+  <si>
+    <t>P_17</t>
+  </si>
+  <si>
+    <t>P_18</t>
+  </si>
+  <si>
+    <t>P_19</t>
+  </si>
+  <si>
+    <t>P_20</t>
+  </si>
+  <si>
+    <t>P_21</t>
+  </si>
+  <si>
+    <t>P_22</t>
+  </si>
+  <si>
+    <t>P_23</t>
+  </si>
+  <si>
+    <t>P_24</t>
+  </si>
+  <si>
+    <t>P_25</t>
+  </si>
+  <si>
+    <t>P_26</t>
+  </si>
+  <si>
+    <t>P_27</t>
+  </si>
+  <si>
+    <t>P_28</t>
+  </si>
+  <si>
+    <t>P_29</t>
+  </si>
+  <si>
+    <t>P_30</t>
+  </si>
+  <si>
+    <t>P_31</t>
+  </si>
+  <si>
+    <t>P_32</t>
+  </si>
+  <si>
+    <t>P_33</t>
+  </si>
+  <si>
+    <t>P_34</t>
+  </si>
+  <si>
+    <t>P_35</t>
+  </si>
+  <si>
+    <t>P_36</t>
+  </si>
+  <si>
+    <t>P_37</t>
+  </si>
+  <si>
+    <t>P_38</t>
+  </si>
+  <si>
+    <t>P_39</t>
+  </si>
+  <si>
+    <t>P_40</t>
+  </si>
+  <si>
+    <t>P_41</t>
+  </si>
+  <si>
+    <t>P_42</t>
+  </si>
+  <si>
+    <t>P_43</t>
+  </si>
+  <si>
+    <t>P_44</t>
+  </si>
+  <si>
+    <t>P_45</t>
+  </si>
+  <si>
+    <t>P_46</t>
+  </si>
+  <si>
+    <t>P_47</t>
+  </si>
+  <si>
+    <t>P_48</t>
+  </si>
+  <si>
+    <t>P_49</t>
+  </si>
+  <si>
+    <t>P_50</t>
+  </si>
+  <si>
+    <t>P_51</t>
+  </si>
+  <si>
+    <t>P_52</t>
+  </si>
+  <si>
+    <t>P_53</t>
+  </si>
+  <si>
+    <t>P_54</t>
+  </si>
+  <si>
+    <t>P_55</t>
+  </si>
+  <si>
+    <t>P_56</t>
+  </si>
+  <si>
+    <t>P_57</t>
+  </si>
+  <si>
+    <t>P_58</t>
+  </si>
+  <si>
+    <t>P_59</t>
+  </si>
+  <si>
+    <t>P_60</t>
+  </si>
+  <si>
+    <t>P_61</t>
+  </si>
+  <si>
+    <t>P_62</t>
+  </si>
+  <si>
+    <t>P_63</t>
+  </si>
+  <si>
+    <t>P_64</t>
+  </si>
+  <si>
+    <t>P_65</t>
+  </si>
+  <si>
+    <t>P_66</t>
+  </si>
+  <si>
+    <t>P_67</t>
+  </si>
+  <si>
+    <t>P_68</t>
+  </si>
+  <si>
+    <t>P_69</t>
+  </si>
+  <si>
+    <t>P_70</t>
+  </si>
+  <si>
+    <t>P_71</t>
+  </si>
+  <si>
+    <t>P_72</t>
+  </si>
+  <si>
+    <t>P_73</t>
+  </si>
+  <si>
+    <t>P_74</t>
+  </si>
+  <si>
+    <t>P_75</t>
+  </si>
+  <si>
+    <t>P_76</t>
+  </si>
+  <si>
+    <t>P_77</t>
+  </si>
+  <si>
+    <t>P_78</t>
+  </si>
+  <si>
+    <t>P_79</t>
+  </si>
+  <si>
+    <t>P_80</t>
+  </si>
+  <si>
+    <t>W_1</t>
+  </si>
+  <si>
+    <t>W_2</t>
+  </si>
+  <si>
+    <t>W_3</t>
+  </si>
+  <si>
+    <t>W_4</t>
+  </si>
+  <si>
+    <t>W_5</t>
+  </si>
+  <si>
+    <t>W_6</t>
+  </si>
+  <si>
+    <t>W_7</t>
+  </si>
+  <si>
+    <t>W_8</t>
+  </si>
+  <si>
+    <t>W_9</t>
+  </si>
+  <si>
+    <t>W_10</t>
+  </si>
+  <si>
+    <t>W_11</t>
+  </si>
+  <si>
+    <t>W_12</t>
+  </si>
+  <si>
+    <t>W_13</t>
+  </si>
+  <si>
+    <t>W_14</t>
+  </si>
+  <si>
+    <t>W_15</t>
+  </si>
+  <si>
+    <t>W_16</t>
+  </si>
+  <si>
+    <t>W_17</t>
+  </si>
+  <si>
+    <t>W_18</t>
+  </si>
+  <si>
+    <t>W_19</t>
+  </si>
+  <si>
+    <t>W_20</t>
+  </si>
+  <si>
+    <t>W_21</t>
+  </si>
+  <si>
+    <t>W_22</t>
+  </si>
+  <si>
+    <t>W_23</t>
+  </si>
+  <si>
+    <t>W_24</t>
+  </si>
+  <si>
+    <t>W_25</t>
+  </si>
+  <si>
+    <t>W_26</t>
+  </si>
+  <si>
+    <t>W_27</t>
+  </si>
+  <si>
+    <t>W_28</t>
+  </si>
+  <si>
+    <t>W_29</t>
+  </si>
+  <si>
+    <t>W_30</t>
+  </si>
+  <si>
+    <t>W_31</t>
+  </si>
+  <si>
+    <t>W_32</t>
+  </si>
+  <si>
+    <t>W_33</t>
+  </si>
+  <si>
+    <t>W_34</t>
+  </si>
+  <si>
+    <t>W_35</t>
+  </si>
+  <si>
+    <t>W_36</t>
+  </si>
+  <si>
+    <t>W_37</t>
+  </si>
+  <si>
+    <t>W_38</t>
+  </si>
+  <si>
+    <t>W_39</t>
+  </si>
+  <si>
+    <t>W_40</t>
+  </si>
+  <si>
+    <t>W_41</t>
+  </si>
+  <si>
+    <t>W_42</t>
+  </si>
+  <si>
+    <t>W_43</t>
+  </si>
+  <si>
+    <t>W_44</t>
+  </si>
+  <si>
+    <t>W_45</t>
+  </si>
+  <si>
+    <t>W_46</t>
+  </si>
+  <si>
+    <t>W_47</t>
+  </si>
+  <si>
+    <t>W_48</t>
+  </si>
+  <si>
+    <t>W_49</t>
+  </si>
+  <si>
+    <t>W_50</t>
+  </si>
+  <si>
+    <t>W_51</t>
+  </si>
+  <si>
+    <t>W_52</t>
+  </si>
+  <si>
+    <t>W_53</t>
+  </si>
+  <si>
+    <t>W_54</t>
+  </si>
+  <si>
+    <t>W_55</t>
+  </si>
+  <si>
+    <t>W_56</t>
+  </si>
+  <si>
+    <t>W_57</t>
+  </si>
+  <si>
+    <t>W_58</t>
+  </si>
+  <si>
+    <t>W_59</t>
+  </si>
+  <si>
+    <t>W_60</t>
+  </si>
+  <si>
+    <t>W_61</t>
+  </si>
+  <si>
+    <t>W_62</t>
+  </si>
+  <si>
+    <t>W_63</t>
+  </si>
+  <si>
+    <t>W_64</t>
+  </si>
+  <si>
+    <t>W_65</t>
+  </si>
+  <si>
+    <t>W_66</t>
+  </si>
+  <si>
+    <t>W_67</t>
+  </si>
+  <si>
+    <t>W_68</t>
+  </si>
+  <si>
+    <t>W_69</t>
+  </si>
+  <si>
+    <t>W_70</t>
+  </si>
+  <si>
+    <t>W_71</t>
+  </si>
+  <si>
+    <t>W_72</t>
+  </si>
+  <si>
+    <t>W_73</t>
+  </si>
+  <si>
+    <t>W_74</t>
+  </si>
+  <si>
+    <t>W_75</t>
+  </si>
+  <si>
+    <t>W_76</t>
+  </si>
+  <si>
+    <t>W_77</t>
+  </si>
+  <si>
+    <t>W_78</t>
+  </si>
+  <si>
+    <t>W_79</t>
+  </si>
+  <si>
+    <t>W_80</t>
+  </si>
+  <si>
     <t>SA_P_1</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>SA_W_2</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>SA_P_3</t>
   </si>
   <si>
@@ -77,130 +841,10 @@
     <t>SA_W_6</t>
   </si>
   <si>
-    <t>Before any test or challenge, I feel much less anxious if I know what its format will be.</t>
-  </si>
-  <si>
-    <t>I try to avoid situations which are ambiguous.</t>
-  </si>
-  <si>
-    <t>I would like to live in a foreign country for a significant amount of time.</t>
-  </si>
-  <si>
-    <t>People who fit their lives to a schedule probably miss most of the joy of living.</t>
-  </si>
-  <si>
-    <t>P_1</t>
-  </si>
-  <si>
-    <t>P_2</t>
-  </si>
-  <si>
-    <t>P_3</t>
-  </si>
-  <si>
-    <t>P_4</t>
-  </si>
-  <si>
-    <t>P_5</t>
-  </si>
-  <si>
-    <t>P_6</t>
-  </si>
-  <si>
-    <t>P_7</t>
-  </si>
-  <si>
-    <t>I always take risks at work and say yes for a new challenge or project even if it is out of my expertise.</t>
-  </si>
-  <si>
-    <t>I say more “No” than “Yes” in my work options and choices.</t>
-  </si>
-  <si>
-    <t>I like jobs that leave room for innovation and new ideas.</t>
-  </si>
-  <si>
-    <t>When at work, I would like like to know what to do ahead of time before it happens</t>
-  </si>
-  <si>
-    <t>I like to fool around with new ideas, even if they turn out later to be a total waste of time.</t>
-  </si>
-  <si>
-    <t>A good job is one where what &amp; how it has to be done, are always clear.</t>
-  </si>
-  <si>
-    <t>W_1</t>
-  </si>
-  <si>
-    <t>W_2</t>
-  </si>
-  <si>
-    <t>W_3</t>
-  </si>
-  <si>
-    <t>W_4</t>
-  </si>
-  <si>
-    <t>W_5</t>
-  </si>
-  <si>
-    <t>W_6</t>
-  </si>
-  <si>
-    <t>W_7</t>
-  </si>
-  <si>
-    <t>W_8</t>
-  </si>
-  <si>
-    <t>The sooner we all acquire similar values and ideals the better.</t>
-  </si>
-  <si>
-    <t>I think that I could thrive if I lived in a foreign country.</t>
-  </si>
-  <si>
-    <t>SA_P_7</t>
-  </si>
-  <si>
-    <t>SA_W_8</t>
-  </si>
-  <si>
-    <t>SA_P_9</t>
-  </si>
-  <si>
-    <t>When I am out with friends, I have no issue with openly communicating with newcomers whom i have never met.</t>
-  </si>
-  <si>
-    <t>I like jobs with clear-cut KPIs, targets and goals.</t>
-  </si>
-  <si>
-    <t>I prefer a predictable job with not much freedom to get creative as I am always scared to mess up.</t>
-  </si>
-  <si>
     <t>Strongly Disagree</t>
   </si>
   <si>
     <t>Strongly Agree</t>
-  </si>
-  <si>
-    <t>When I go on holidays with friends I prefer to have nothing planned and explore.</t>
-  </si>
-  <si>
-    <t>I prefer a situation in which I don’t know the people.</t>
-  </si>
-  <si>
-    <t>I always plan things with a lot of time ahead.</t>
-  </si>
-  <si>
-    <t>I prefer situations that push/lead me out of my comfort zone.</t>
-  </si>
-  <si>
-    <t>I like to try tasks outside my field of expertise.</t>
-  </si>
-  <si>
-    <t>I refuse to delegate tasks to others, this is because I cannot be “sure” that it will be done correctly unless I do it.</t>
-  </si>
-  <si>
-    <t>Managers who hand out vague assignments give people a chance to show initiative and originality.</t>
   </si>
 </sst>
 </file>
@@ -557,19 +1201,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26F185D-DFAE-9941-877D-6015141560AB}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7589F-2305-7A4A-BAC9-2A9F0A317C52}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
@@ -583,56 +1225,56 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>2.5</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2.5</v>
@@ -646,16 +1288,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2.5</v>
@@ -669,159 +1311,90 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>2.5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2.5</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>2.5</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2.5</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>2.5</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2.5</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B38F5DB-5A94-044E-8A30-A1AE37CDB2A1}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF42B3F4-5090-5E4E-9F2D-1C91EB9D14FE}">
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -834,155 +1407,1615 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2.5</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1.5</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1.5</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1.5</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1.5</v>
+      </c>
+      <c r="F26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1.5</v>
+      </c>
+      <c r="F27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1.5</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1.5</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1.5</v>
+      </c>
+      <c r="F31">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1.5</v>
+      </c>
+      <c r="F32">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="F33">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1.5</v>
+      </c>
+      <c r="F34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1.5</v>
+      </c>
+      <c r="F35">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1.5</v>
+      </c>
+      <c r="F36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1.5</v>
+      </c>
+      <c r="F37">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1.5</v>
+      </c>
+      <c r="F38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1.5</v>
+      </c>
+      <c r="F39">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1.5</v>
+      </c>
+      <c r="F40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2.5</v>
+      </c>
+      <c r="F42">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>2.5</v>
+      </c>
+      <c r="F43">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>2.5</v>
+      </c>
+      <c r="F44">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2.5</v>
+      </c>
+      <c r="F45">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2.5</v>
+      </c>
+      <c r="F46">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>2.5</v>
+      </c>
+      <c r="F47">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>2.5</v>
+      </c>
+      <c r="F48">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>2.5</v>
+      </c>
+      <c r="F49">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2.5</v>
+      </c>
+      <c r="F50">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>2.5</v>
+      </c>
+      <c r="F51">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>2.5</v>
+      </c>
+      <c r="F52">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>2.5</v>
+      </c>
+      <c r="F53">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>2.5</v>
+      </c>
+      <c r="F54">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2.5</v>
+      </c>
+      <c r="F55">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>2.5</v>
+      </c>
+      <c r="F56">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>2.5</v>
+      </c>
+      <c r="F57">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>2.5</v>
+      </c>
+      <c r="F58">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>2.5</v>
+      </c>
+      <c r="F59">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2.5</v>
+      </c>
+      <c r="F60">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>2.5</v>
+      </c>
+      <c r="F61">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
         <v>4</v>
       </c>
     </row>
@@ -993,17 +3026,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA78FC1-3B67-3544-AF43-1CD123BE3CD8}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16618C6F-F7FF-A643-A8B3-B456366D5B94}">
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="94.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1014,175 +3046,1615 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1.5</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1.5</v>
+      </c>
+      <c r="F23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1.5</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1.5</v>
+      </c>
+      <c r="F26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1.5</v>
+      </c>
+      <c r="F27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1.5</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1.5</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1.5</v>
+      </c>
+      <c r="F31">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1.5</v>
+      </c>
+      <c r="F32">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="F33">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1.5</v>
+      </c>
+      <c r="F34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1.5</v>
+      </c>
+      <c r="F35">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1.5</v>
+      </c>
+      <c r="F36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1.5</v>
+      </c>
+      <c r="F37">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1.5</v>
+      </c>
+      <c r="F38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1.5</v>
+      </c>
+      <c r="F39">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1.5</v>
+      </c>
+      <c r="F40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2.5</v>
+      </c>
+      <c r="F42">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>2.5</v>
+      </c>
+      <c r="F43">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>2.5</v>
+      </c>
+      <c r="F44">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2.5</v>
+      </c>
+      <c r="F45">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2.5</v>
+      </c>
+      <c r="F46">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>2.5</v>
+      </c>
+      <c r="F47">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>2.5</v>
+      </c>
+      <c r="F48">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>2.5</v>
+      </c>
+      <c r="F49">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2.5</v>
+      </c>
+      <c r="F50">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>2.5</v>
+      </c>
+      <c r="F51">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>2.5</v>
+      </c>
+      <c r="F52">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>2.5</v>
+      </c>
+      <c r="F53">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>2.5</v>
+      </c>
+      <c r="F54">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2.5</v>
+      </c>
+      <c r="F55">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>2.5</v>
+      </c>
+      <c r="F56">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>2.5</v>
+      </c>
+      <c r="F57">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>2.5</v>
+      </c>
+      <c r="F58">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>2.5</v>
+      </c>
+      <c r="F59">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2.5</v>
+      </c>
+      <c r="F60">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>2.5</v>
+      </c>
+      <c r="F61">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>247</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>258</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>259</v>
+      </c>
+      <c r="B79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
         <v>4</v>
       </c>
     </row>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvaro/Google Drive/PWScale/Iterative PWScale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE437E48-E785-7A40-99A0-976742300B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A704C7-1C52-FE49-8C77-59075C20C472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{3EE04F1E-1415-3B4D-9BE5-D43A373F17F0}"/>
   </bookViews>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,13 +1254,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1277,13 +1277,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1300,13 +1300,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1323,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1346,13 +1346,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1369,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1388,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF42B3F4-5090-5E4E-9F2D-1C91EB9D14FE}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1450,13 +1450,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1470,13 +1470,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1490,13 +1490,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1510,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1530,13 +1530,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1550,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1570,13 +1570,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1590,13 +1590,13 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1610,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1630,13 +1630,13 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1650,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1670,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1690,13 +1690,13 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1710,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1730,13 +1730,13 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1750,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1770,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1810,13 +1810,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1830,13 +1830,13 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1850,13 +1850,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1870,13 +1870,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1890,13 +1890,13 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1910,13 +1910,13 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1930,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1950,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1970,13 +1970,13 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1990,13 +1990,13 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2010,13 +2010,13 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2030,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2050,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2070,13 +2070,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2090,13 +2090,13 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2110,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2130,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2150,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2170,13 +2170,13 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2190,13 +2190,13 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E40">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2210,13 +2210,13 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2230,13 +2230,13 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E42">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2250,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E43">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2270,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E44">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2290,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2310,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E46">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2330,13 +2330,13 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E47">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2350,13 +2350,13 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E48">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2370,13 +2370,13 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E49">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2390,13 +2390,13 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E50">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E51">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E52">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2450,13 +2450,13 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E53">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E54">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2490,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E55">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2510,13 +2510,13 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E56">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2530,13 +2530,13 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E57">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2550,13 +2550,13 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E58">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2570,13 +2570,13 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E59">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2590,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E60">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2610,13 +2610,13 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E61">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2630,13 +2630,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2650,13 +2650,13 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2670,13 +2670,13 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2690,13 +2690,13 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2710,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2730,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2750,13 +2750,13 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2770,13 +2770,13 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2790,13 +2790,13 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2810,13 +2810,13 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2830,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2850,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2870,13 +2870,13 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2890,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2910,13 +2910,13 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2930,13 +2930,13 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2950,13 +2950,13 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2970,13 +2970,13 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2990,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3010,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3029,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16618C6F-F7FF-A643-A8B3-B456366D5B94}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3069,13 +3069,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3089,13 +3089,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3109,13 +3109,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3129,13 +3129,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3149,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3169,13 +3169,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3189,13 +3189,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3209,13 +3209,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3229,13 +3229,13 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3269,13 +3269,13 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3289,13 +3289,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3309,13 +3309,13 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3329,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3349,13 +3349,13 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3369,13 +3369,13 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3389,13 +3389,13 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3409,13 +3409,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3429,13 +3429,13 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3449,13 +3449,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3469,13 +3469,13 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3489,13 +3489,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3509,13 +3509,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3529,13 +3529,13 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3549,13 +3549,13 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3569,13 +3569,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3589,13 +3589,13 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3609,13 +3609,13 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3629,13 +3629,13 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3649,13 +3649,13 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3669,13 +3669,13 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3689,13 +3689,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3709,13 +3709,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3729,13 +3729,13 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3749,13 +3749,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3769,13 +3769,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3789,13 +3789,13 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3809,13 +3809,13 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3829,13 +3829,13 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E40">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3849,13 +3849,13 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="E41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>2.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3869,13 +3869,13 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E42">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3889,13 +3889,13 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E43">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3909,13 +3909,13 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E44">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3929,13 +3929,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3949,13 +3949,13 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E46">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3969,13 +3969,13 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E47">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3989,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E48">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4009,13 +4009,13 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E49">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4029,13 +4029,13 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E50">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4049,13 +4049,13 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E51">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4069,13 +4069,13 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E52">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4089,13 +4089,13 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E53">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4109,13 +4109,13 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E54">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4129,13 +4129,13 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E55">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4149,13 +4149,13 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E56">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4169,13 +4169,13 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E57">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4189,13 +4189,13 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E58">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4209,13 +4209,13 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E59">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4229,13 +4229,13 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E60">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4249,13 +4249,13 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E61">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4269,13 +4269,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4289,13 +4289,13 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4309,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4329,13 +4329,13 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4349,13 +4349,13 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4369,13 +4369,13 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,13 +4389,13 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4409,13 +4409,13 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4429,13 +4429,13 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4449,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4469,13 +4469,13 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4489,13 +4489,13 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4509,13 +4509,13 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4529,13 +4529,13 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4549,13 +4549,13 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4569,13 +4569,13 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4589,13 +4589,13 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4609,13 +4609,13 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4629,13 +4629,13 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4649,13 +4649,13 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
